--- a/Stats/9igf-gac.xlsx
+++ b/Stats/9igf-gac.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AMAN\GAC\Stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\albin\GAC\Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1047,7 +1047,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -1078,29 +1078,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2548,7 +2547,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B109" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -3024,12 +3023,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:I129" totalsRowShown="0">
   <autoFilter ref="A1:I129"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Date" dataDxfId="2"/>
+    <tableColumn id="1" name="Date" dataDxfId="0"/>
     <tableColumn id="2" name="KM"/>
     <tableColumn id="3" name="D+"/>
     <tableColumn id="4" name="Ele max"/>
     <tableColumn id="5" name="People"/>
-    <tableColumn id="9" name="KmSum" dataDxfId="0">
+    <tableColumn id="9" name="KmSum" dataDxfId="2">
       <calculatedColumnFormula>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="Event"/>
@@ -3041,7 +3040,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3306,25 +3305,24 @@
   <dimension ref="A1:IW129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="78.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="86.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="78.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="86.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="257" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -3353,7 +3351,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="5">
         <v>44010</v>
       </c>
       <c r="B2">
@@ -3380,7 +3378,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="5">
         <v>44016</v>
       </c>
       <c r="B3">
@@ -3407,7 +3405,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="5">
         <v>44017</v>
       </c>
       <c r="B4">
@@ -3437,7 +3435,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="5">
         <v>44023</v>
       </c>
       <c r="B5">
@@ -3467,7 +3465,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="5">
         <v>44029</v>
       </c>
       <c r="B6">
@@ -3497,7 +3495,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="5">
         <v>44026</v>
       </c>
       <c r="B7">
@@ -3527,7 +3525,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="5">
         <v>44030</v>
       </c>
       <c r="B8">
@@ -3557,7 +3555,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="5">
         <v>44031</v>
       </c>
       <c r="E9">
@@ -3575,7 +3573,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="5">
         <v>44031</v>
       </c>
       <c r="B10">
@@ -3605,7 +3603,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="5">
         <v>44037</v>
       </c>
       <c r="B11">
@@ -3635,7 +3633,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="5">
         <v>44038</v>
       </c>
       <c r="B12">
@@ -3665,7 +3663,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="5">
         <v>44043</v>
       </c>
       <c r="E13">
@@ -3683,7 +3681,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="5">
         <v>44044</v>
       </c>
       <c r="B14">
@@ -3713,7 +3711,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="5">
         <v>44045</v>
       </c>
       <c r="B15">
@@ -3743,7 +3741,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="5">
         <v>44051</v>
       </c>
       <c r="E16">
@@ -3761,7 +3759,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="5">
         <v>44052</v>
       </c>
       <c r="B17">
@@ -3791,7 +3789,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="5">
         <v>44054</v>
       </c>
       <c r="E18">
@@ -3809,7 +3807,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="5">
         <v>44058</v>
       </c>
       <c r="E19">
@@ -3827,7 +3825,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="5">
         <v>44059</v>
       </c>
       <c r="E20">
@@ -3848,7 +3846,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="5">
         <v>44065</v>
       </c>
       <c r="B21">
@@ -3878,7 +3876,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="5">
         <v>44066</v>
       </c>
       <c r="B22">
@@ -3908,7 +3906,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="5">
         <v>44087</v>
       </c>
       <c r="B23">
@@ -3938,7 +3936,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="5">
         <v>44087</v>
       </c>
       <c r="B24">
@@ -3968,7 +3966,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="5">
         <v>44105</v>
       </c>
       <c r="B25">
@@ -3998,7 +3996,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="5">
         <v>44115</v>
       </c>
       <c r="B26">
@@ -4028,7 +4026,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="5">
         <v>44128</v>
       </c>
       <c r="E27">
@@ -4046,7 +4044,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="5">
         <v>44184</v>
       </c>
       <c r="B28">
@@ -4076,7 +4074,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="5">
         <v>44190</v>
       </c>
       <c r="E29">
@@ -4094,7 +4092,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="5">
         <v>44192</v>
       </c>
       <c r="E30">
@@ -4112,7 +4110,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="5">
         <v>44205</v>
       </c>
       <c r="B31">
@@ -4142,7 +4140,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="5">
         <v>44206</v>
       </c>
       <c r="B32">
@@ -4172,7 +4170,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="5">
         <v>44233</v>
       </c>
       <c r="E33">
@@ -4193,7 +4191,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="5">
         <v>44241</v>
       </c>
       <c r="B34">
@@ -4226,7 +4224,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="A35" s="5">
         <v>44248</v>
       </c>
       <c r="B35">
@@ -4256,7 +4254,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="5">
         <v>44254</v>
       </c>
       <c r="B36">
@@ -4286,7 +4284,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="5">
         <v>44261</v>
       </c>
       <c r="B37">
@@ -4316,7 +4314,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="5">
         <v>44268</v>
       </c>
       <c r="B38">
@@ -4346,7 +4344,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39" s="5">
         <v>44329</v>
       </c>
       <c r="B39">
@@ -4376,7 +4374,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40" s="5">
         <v>44331</v>
       </c>
       <c r="B40">
@@ -4406,7 +4404,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="A41" s="5">
         <v>44339</v>
       </c>
       <c r="B41">
@@ -4436,7 +4434,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42" s="5">
         <v>44346</v>
       </c>
       <c r="B42">
@@ -4466,7 +4464,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="A43" s="5">
         <v>44353</v>
       </c>
       <c r="B43">
@@ -4496,7 +4494,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="A44" s="5">
         <v>44365</v>
       </c>
       <c r="B44">
@@ -4526,7 +4524,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="A45" s="5">
         <v>44366</v>
       </c>
       <c r="B45">
@@ -4556,7 +4554,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="A46" s="5">
         <v>44368</v>
       </c>
       <c r="B46">
@@ -4586,7 +4584,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="A47" s="5">
         <v>44373</v>
       </c>
       <c r="B47">
@@ -4616,7 +4614,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="A48" s="5">
         <v>44378</v>
       </c>
       <c r="E48">
@@ -4634,7 +4632,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="A49" s="5">
         <v>44379</v>
       </c>
       <c r="E49">
@@ -4652,7 +4650,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="A50" s="5">
         <v>44380</v>
       </c>
       <c r="B50">
@@ -4682,7 +4680,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="A51" s="5">
         <v>44381</v>
       </c>
       <c r="E51">
@@ -4700,7 +4698,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+      <c r="A52" s="5">
         <v>44379</v>
       </c>
       <c r="B52">
@@ -4730,7 +4728,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+      <c r="A53" s="5">
         <v>44387</v>
       </c>
       <c r="B53">
@@ -4763,7 +4761,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+      <c r="A54" s="5">
         <v>44388</v>
       </c>
       <c r="B54">
@@ -4796,7 +4794,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+      <c r="A55" s="5">
         <v>44399</v>
       </c>
       <c r="B55">
@@ -4826,7 +4824,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+      <c r="A56" s="5">
         <v>44401</v>
       </c>
       <c r="B56">
@@ -4856,7 +4854,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+      <c r="A57" s="5">
         <v>44409</v>
       </c>
       <c r="B57">
@@ -4886,7 +4884,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+      <c r="A58" s="5">
         <v>44415</v>
       </c>
       <c r="B58">
@@ -4916,7 +4914,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+      <c r="A59" s="5">
         <v>44416</v>
       </c>
       <c r="B59">
@@ -4946,7 +4944,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+      <c r="A60" s="5">
         <v>44420</v>
       </c>
       <c r="B60">
@@ -4976,7 +4974,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+      <c r="A61" s="5">
         <v>44422</v>
       </c>
       <c r="E61">
@@ -4994,7 +4992,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+      <c r="A62" s="5">
         <v>44422</v>
       </c>
       <c r="B62">
@@ -5024,7 +5022,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+      <c r="A63" s="5">
         <v>44423</v>
       </c>
       <c r="B63">
@@ -5051,7 +5049,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+      <c r="A64" s="5">
         <v>44423</v>
       </c>
       <c r="B64">
@@ -5081,7 +5079,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+      <c r="A65" s="5">
         <v>44429</v>
       </c>
       <c r="B65">
@@ -5111,7 +5109,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+      <c r="A66" s="5">
         <v>44430</v>
       </c>
       <c r="B66">
@@ -5138,7 +5136,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+      <c r="A67" s="5">
         <v>44437</v>
       </c>
       <c r="B67">
@@ -5168,7 +5166,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+      <c r="A68" s="5">
         <v>44443</v>
       </c>
       <c r="B68">
@@ -5198,7 +5196,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+      <c r="A69" s="5">
         <v>44451</v>
       </c>
       <c r="B69">
@@ -5222,7 +5220,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+      <c r="A70" s="5">
         <v>44457</v>
       </c>
       <c r="B70">
@@ -5249,7 +5247,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+      <c r="A71" s="5">
         <v>44458</v>
       </c>
       <c r="B71">
@@ -5279,7 +5277,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+      <c r="A72" s="5">
         <v>44463</v>
       </c>
       <c r="B72">
@@ -5306,7 +5304,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+      <c r="A73" s="5">
         <v>44464</v>
       </c>
       <c r="B73">
@@ -5333,7 +5331,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+      <c r="A74" s="5">
         <v>44464</v>
       </c>
       <c r="B74">
@@ -5357,7 +5355,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+      <c r="A75" s="5">
         <v>44471</v>
       </c>
       <c r="B75">
@@ -5381,7 +5379,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+      <c r="A76" s="5">
         <v>44471</v>
       </c>
       <c r="B76">
@@ -5408,7 +5406,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+      <c r="A77" s="5">
         <v>44478</v>
       </c>
       <c r="B77">
@@ -5438,7 +5436,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+      <c r="A78" s="5">
         <v>44479</v>
       </c>
       <c r="B78">
@@ -5468,7 +5466,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+      <c r="A79" s="5">
         <v>44485</v>
       </c>
       <c r="B79">
@@ -5498,7 +5496,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+      <c r="A80" s="5">
         <v>44486</v>
       </c>
       <c r="B80">
@@ -5528,7 +5526,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+      <c r="A81" s="5">
         <v>44492</v>
       </c>
       <c r="B81">
@@ -5555,7 +5553,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+      <c r="A82" s="5">
         <v>44492</v>
       </c>
       <c r="E82">
@@ -5573,7 +5571,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
+      <c r="A83" s="5">
         <v>44493</v>
       </c>
       <c r="B83">
@@ -5603,7 +5601,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+      <c r="A84" s="5">
         <v>44500</v>
       </c>
       <c r="B84">
@@ -5633,7 +5631,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+      <c r="A85" s="5">
         <v>44506</v>
       </c>
       <c r="B85">
@@ -5657,7 +5655,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
+      <c r="A86" s="5">
         <v>44507</v>
       </c>
       <c r="B86">
@@ -5687,7 +5685,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+      <c r="A87" s="5">
         <v>44507</v>
       </c>
       <c r="B87">
@@ -5711,7 +5709,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+      <c r="A88" s="5">
         <v>44514</v>
       </c>
       <c r="B88">
@@ -5741,7 +5739,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+      <c r="A89" s="5">
         <v>44518</v>
       </c>
       <c r="E89">
@@ -5759,7 +5757,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
+      <c r="A90" s="5">
         <v>44521</v>
       </c>
       <c r="B90">
@@ -5789,7 +5787,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
+      <c r="A91" s="5">
         <v>44528</v>
       </c>
       <c r="B91">
@@ -5819,7 +5817,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
+      <c r="A92" s="5">
         <v>44534</v>
       </c>
       <c r="B92">
@@ -5849,7 +5847,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
+      <c r="A93" s="5">
         <v>44541</v>
       </c>
       <c r="B93">
@@ -5873,7 +5871,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
+      <c r="A94" s="5">
         <v>44542</v>
       </c>
       <c r="B94">
@@ -5903,7 +5901,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
+      <c r="A95" s="5">
         <v>44548</v>
       </c>
       <c r="B95">
@@ -5927,7 +5925,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
+      <c r="A96" s="5">
         <v>44562</v>
       </c>
       <c r="B96">
@@ -5951,7 +5949,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
+      <c r="A97" s="5">
         <v>44563</v>
       </c>
       <c r="B97">
@@ -5978,7 +5976,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
+      <c r="A98" s="5">
         <v>44569</v>
       </c>
       <c r="B98">
@@ -6008,7 +6006,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
+      <c r="A99" s="5">
         <v>44576</v>
       </c>
       <c r="E99">
@@ -6026,7 +6024,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
+      <c r="A100" s="5">
         <v>44576</v>
       </c>
       <c r="E100">
@@ -6044,7 +6042,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
+      <c r="A101" s="5">
         <v>44577</v>
       </c>
       <c r="B101">
@@ -6068,7 +6066,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
+      <c r="A102" s="5">
         <v>44583</v>
       </c>
       <c r="E102">
@@ -6086,7 +6084,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
+      <c r="A103" s="5">
         <v>44583</v>
       </c>
       <c r="B103">
@@ -6116,7 +6114,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
+      <c r="A104" s="5">
         <v>44583</v>
       </c>
       <c r="B104">
@@ -6140,7 +6138,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
+      <c r="A105" s="5">
         <v>44219</v>
       </c>
       <c r="B105">
@@ -6164,7 +6162,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
+      <c r="A106" s="5">
         <v>44584</v>
       </c>
       <c r="B106">
@@ -6191,7 +6189,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
+      <c r="A107" s="5">
         <v>44590</v>
       </c>
       <c r="E107">
@@ -6209,7 +6207,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
+      <c r="A108" s="5">
         <v>44590</v>
       </c>
       <c r="E108">
@@ -6227,7 +6225,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
+      <c r="A109" s="5">
         <v>44591</v>
       </c>
       <c r="B109">
@@ -6257,7 +6255,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
+      <c r="A110" s="5">
         <v>44597</v>
       </c>
       <c r="E110">
@@ -6275,7 +6273,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
+      <c r="A111" s="5">
         <v>44597</v>
       </c>
       <c r="B111">
@@ -6305,7 +6303,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
+      <c r="A112" s="5">
         <v>44598</v>
       </c>
       <c r="B112">
@@ -6335,7 +6333,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
+      <c r="A113" s="5">
         <v>44604</v>
       </c>
       <c r="E113">
@@ -6353,7 +6351,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
+      <c r="A114" s="5">
         <v>44604</v>
       </c>
       <c r="E114">
@@ -6371,7 +6369,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
+      <c r="A115" s="5">
         <v>44605</v>
       </c>
       <c r="E115">
@@ -6389,7 +6387,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
+      <c r="A116" s="5">
         <v>44605</v>
       </c>
       <c r="B116">
@@ -6416,7 +6414,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
+      <c r="A117" s="5">
         <v>44610</v>
       </c>
       <c r="B117">
@@ -6446,7 +6444,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
+      <c r="A118" s="5">
         <v>44610</v>
       </c>
       <c r="B118">
@@ -6476,7 +6474,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
+      <c r="A119" s="5">
         <v>44611</v>
       </c>
       <c r="E119">
@@ -6494,7 +6492,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
+      <c r="A120" s="5">
         <v>44611</v>
       </c>
       <c r="E120">
@@ -6512,7 +6510,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
+      <c r="A121" s="5">
         <v>44612</v>
       </c>
       <c r="B121">
@@ -6542,7 +6540,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
+      <c r="A122" s="5">
         <v>44618</v>
       </c>
       <c r="E122">
@@ -6560,7 +6558,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
+      <c r="A123" s="5">
         <v>44618</v>
       </c>
       <c r="B123">
@@ -6590,7 +6588,7 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
+      <c r="A124" s="5">
         <v>44619</v>
       </c>
       <c r="B124">
@@ -6620,7 +6618,7 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
+      <c r="A125" s="5">
         <v>44624</v>
       </c>
       <c r="E125">
@@ -6638,7 +6636,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
+      <c r="A126" s="5">
         <v>44625</v>
       </c>
       <c r="E126">
@@ -6656,7 +6654,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
+      <c r="A127" s="5">
         <v>44625</v>
       </c>
       <c r="B127">
@@ -6686,7 +6684,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
+      <c r="A128" s="5">
         <v>44626</v>
       </c>
       <c r="B128">
@@ -6710,7 +6708,7 @@
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
+      <c r="A129" s="5">
         <v>44626</v>
       </c>
       <c r="B129">
@@ -6756,14 +6754,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>335</v>
       </c>
       <c r="B1" t="s">
@@ -6771,866 +6769,866 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>44010</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>44016</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>44017</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>44023</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>44026</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>44029</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>44030</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>44031</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>44037</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>44038</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>44043</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>44044</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>44045</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>44051</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>44052</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>44054</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>44058</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>44059</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>44065</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>44066</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>44087</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>44105</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>44115</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>44128</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="3">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>44184</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <v>44190</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>44192</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="2">
         <v>44205</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <v>44206</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>44219</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>44233</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="2">
         <v>44241</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>44248</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>44254</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>44261</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="2">
         <v>44268</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="2">
         <v>44329</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="2">
         <v>44331</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40" s="2">
         <v>44339</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="2">
         <v>44346</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="2">
         <v>44353</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43" s="2">
         <v>44365</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="3">
         <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44" s="2">
         <v>44366</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="2">
         <v>44368</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="2">
         <v>44373</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="2">
         <v>44378</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="A48" s="2">
         <v>44379</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49" s="2">
         <v>44380</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="A50" s="2">
         <v>44381</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51" s="2">
         <v>44387</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="A52" s="2">
         <v>44388</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53" s="2">
         <v>44399</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="A54" s="2">
         <v>44401</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55" s="2">
         <v>44409</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="A56" s="2">
         <v>44415</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="A57" s="2">
         <v>44416</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+      <c r="A58" s="2">
         <v>44420</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="A59" s="2">
         <v>44422</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+      <c r="A60" s="2">
         <v>44423</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="A61" s="2">
         <v>44429</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="A62" s="2">
         <v>44430</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="3">
         <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="2">
         <v>44437</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+      <c r="A64" s="2">
         <v>44443</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+      <c r="A65" s="2">
         <v>44451</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="3">
         <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+      <c r="A66" s="2">
         <v>44457</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+      <c r="A67" s="2">
         <v>44458</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+      <c r="A68" s="2">
         <v>44463</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="A69" s="2">
         <v>44464</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+      <c r="A70" s="2">
         <v>44471</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="3">
         <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="A71" s="2">
         <v>44478</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+      <c r="A72" s="2">
         <v>44479</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+      <c r="A73" s="2">
         <v>44485</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
+      <c r="A74" s="2">
         <v>44486</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+      <c r="A75" s="2">
         <v>44492</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
+      <c r="A76" s="2">
         <v>44493</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+      <c r="A77" s="2">
         <v>44500</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
+      <c r="A78" s="2">
         <v>44506</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
+      <c r="A79" s="2">
         <v>44507</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
+      <c r="A80" s="2">
         <v>44514</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
+      <c r="A81" s="2">
         <v>44518</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
+      <c r="A82" s="2">
         <v>44521</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
+      <c r="A83" s="2">
         <v>44528</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
+      <c r="A84" s="2">
         <v>44534</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
+      <c r="A85" s="2">
         <v>44541</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
+      <c r="A86" s="2">
         <v>44542</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
+      <c r="A87" s="2">
         <v>44548</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
+      <c r="A88" s="2">
         <v>44562</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
+      <c r="A89" s="2">
         <v>44563</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
+      <c r="A90" s="2">
         <v>44569</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B90" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
+      <c r="A91" s="2">
         <v>44576</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
+      <c r="A92" s="2">
         <v>44577</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
+      <c r="A93" s="2">
         <v>44583</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B93" s="3">
         <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
+      <c r="A94" s="2">
         <v>44584</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
+      <c r="A95" s="2">
         <v>44590</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
+      <c r="A96" s="2">
         <v>44591</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
+      <c r="A97" s="2">
         <v>44597</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
+      <c r="A98" s="2">
         <v>44598</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B98" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
+      <c r="A99" s="2">
         <v>44604</v>
       </c>
-      <c r="B99" s="5">
+      <c r="B99" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
+      <c r="A100" s="2">
         <v>44605</v>
       </c>
-      <c r="B100" s="5">
+      <c r="B100" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
+      <c r="A101" s="2">
         <v>44610</v>
       </c>
-      <c r="B101" s="5">
+      <c r="B101" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
+      <c r="A102" s="2">
         <v>44611</v>
       </c>
-      <c r="B102" s="5">
+      <c r="B102" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
+      <c r="A103" s="2">
         <v>44612</v>
       </c>
-      <c r="B103" s="5">
+      <c r="B103" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
+      <c r="A104" s="2">
         <v>44618</v>
       </c>
-      <c r="B104" s="5">
+      <c r="B104" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
+      <c r="A105" s="2">
         <v>44619</v>
       </c>
-      <c r="B105" s="5">
+      <c r="B105" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="4">
+      <c r="A106" s="2">
         <v>44624</v>
       </c>
-      <c r="B106" s="5">
+      <c r="B106" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="4">
+      <c r="A107" s="2">
         <v>44625</v>
       </c>
-      <c r="B107" s="5">
+      <c r="B107" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="4">
+      <c r="A108" s="2">
         <v>44626</v>
       </c>
-      <c r="B108" s="5">
+      <c r="B108" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B109" s="5">
+      <c r="B109" s="3">
         <v>1549</v>
       </c>
     </row>

--- a/Stats/9igf-gac.xlsx
+++ b/Stats/9igf-gac.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\albin\GAC\Stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AMAN\Perso\GAC\Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="339"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="340">
   <si>
     <t>Date</t>
   </si>
@@ -1040,6 +1040,9 @@
   </si>
   <si>
     <t>KmSum</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
   </si>
 </sst>
 </file>
@@ -1049,10 +1052,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1075,10 +1086,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1087,11 +1099,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     </dxf>
@@ -1100,6 +1114,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3020,10 +3037,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:I129" totalsRowShown="0">
-  <autoFilter ref="A1:I129"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="Date" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:J129" totalsRowShown="0">
+  <autoFilter ref="A1:J129"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Date" dataDxfId="3"/>
+    <tableColumn id="10" name="Colonne1" dataDxfId="0">
+      <calculatedColumnFormula>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="2" name="KM"/>
     <tableColumn id="3" name="D+"/>
     <tableColumn id="4" name="Ele max"/>
@@ -3040,7 +3060,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3302,3446 +3322,4358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IW129"/>
+  <dimension ref="A1:IX129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="9.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="78.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="86.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="257" width="11.42578125" style="1"/>
+    <col min="1" max="2" width="10.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="42.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="1" customWidth="1"/>
+    <col min="11" max="258" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>44010</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>9,7 km - d+ 507 m - top 1050m
+{{https://binnette.github.io/GAC/Stats/img/2020-06-28.jpg}}
+GPX: 
+Meetup 2020-06-28: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/271562817/|Circuit Mont Jalla – Mont Rachais]]</v>
+      </c>
+      <c r="C2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>507</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1050</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>29.099999999999998</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>44016</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>3,6 km - d+ 786 m - top 2082m
+{{https://binnette.github.io/GAC/Stats/img/2020-07-04.jpg}}
+GPX: 
+Meetup 2020-07-04: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/271679624/|Chamechaude 4th of July!]]</v>
+      </c>
+      <c r="C3">
         <v>3.6</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>786</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2082</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>6</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>21.6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>44017</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>6,2 km - d+ 70 m - top 220m
+{{https://binnette.github.io/GAC/Stats/img/2020-07-05.jpg}}
+GPX: https://frama.link/FzfQXGha
+Meetup 2020-07-05: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/271695565/|"City Hike" with Game :)]]</v>
+      </c>
+      <c r="C4">
         <v>6.2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>70</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>220</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>11</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>68.2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>44023</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>4,3 km - d+ 60 m - top 220m
+{{https://binnette.github.io/GAC/Stats/img/2020-07-11.jpg}}
+GPX: https://frama.link/XsStAy4E
+Meetup 2020-07-11: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/271771141/|City Hike #2 with Geocaching]]</v>
+      </c>
+      <c r="C5">
         <v>4.3</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>60</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>220</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>17.2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>44029</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>14,6 km - d+ 1190 m - top 2448m
+{{https://binnette.github.io/GAC/Stats/img/2020-07-17.jpg}}
+GPX: https://frama.link/5RJcyZ8w
+Meetup 2020-07-17: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/271778570/|Chamrousse and the lakes, 12th of July!]]</v>
+      </c>
+      <c r="C6">
         <v>14.6</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1190</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2448</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>15</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>219</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>44026</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>11,9 km - d+ 442 m - top 683m
+{{https://binnette.github.io/GAC/Stats/img/2020-07-14.jpg}}
+GPX: https://frama.link/kB_8PSV_
+Meetup 2020-07-14: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/271838208/|Bastille Day Hike - Vive La France !!!]]</v>
+      </c>
+      <c r="C7">
         <v>11.9</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>442</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>683</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>190.4</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>44030</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>6,6 km - d+ 50 m - top 220m
+{{https://binnette.github.io/GAC/Stats/img/2020-07-18.jpg}}
+GPX: https://frama.link/vjEtRFtR
+Meetup 2020-07-18: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/271960604/|Chill afternoon Geocaching: from noob/muggle to legend]]</v>
+      </c>
+      <c r="C8">
         <v>6.6</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>50</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>220</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>46.199999999999996</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>24</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>25</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>44031</v>
       </c>
-      <c r="E9">
+      <c r="B9" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2020-07-19.jpg}}
+GPX: 
+Meetup 2020-07-19: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/271946883/|Cuves de Sassenage Cancelled! Let's do some via Ferrata instead!]]</v>
+      </c>
+      <c r="F9">
         <v>7</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>27</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>44031</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>12,2 km - d+ 869 m - top 847m
+{{https://binnette.github.io/GAC/Stats/img/2020-07-19.jpg}}
+GPX: https://frama.link/Z1dSsMd1
+Meetup 2020-07-19: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/271987148/|Refreshing hiking Cuves de Sassenage &amp; Ferme Durand]]</v>
+      </c>
+      <c r="C10">
         <v>12.2</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>869</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>847</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>11</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>134.19999999999999</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>29</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>44037</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>9,6 km - d+ 982 m - top 1006m
+{{https://binnette.github.io/GAC/Stats/img/2020-07-25.jpg}}
+GPX: https://frama.link/fp-P9n9c
+Meetup 2020-07-25: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/272076374/|PLAN B - GR9: from Grenoble to Mont Rachais]]</v>
+      </c>
+      <c r="C11">
         <v>9.6</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>982</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1006</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>7</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>67.2</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>32</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>44038</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>20,8 km - d+ 570 m - top 720m
+{{https://binnette.github.io/GAC/Stats/img/2020-07-26.jpg}}
+GPX: https://s.42l.fr/OVHHa0Md
+Meetup 2020-07-26: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/272059645/|Sunday Funday!]]</v>
+      </c>
+      <c r="C12">
         <v>20.8</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>570</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>720</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>20</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>416</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>35</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>44043</v>
       </c>
-      <c r="E13">
+      <c r="B13" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2020-07-31.jpg}}
+GPX: 
+Meetup 2020-07-31: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/272216179/|Les diamants de Mistral!]]</v>
+      </c>
+      <c r="F13">
         <v>5</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>38</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>44044</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>21 km - d+ 1628 m - top 2020m
+{{https://binnette.github.io/GAC/Stats/img/2020-08-01.jpg}}
+GPX: https://frama.link/8fkouHUp
+Meetup 2020-08-01: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/272212113/|La dent de Crolles and more (or not)...]]</v>
+      </c>
+      <c r="C14">
         <v>21</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1628</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>2020</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>6</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>126</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>40</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>41</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>44045</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>9,1 km - d+ 837 m - top 2414m
+{{https://binnette.github.io/GAC/Stats/img/2020-08-02.jpg}}
+GPX: https://frama.link/myvV6DZ3
+Meetup 2020-08-02: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/272245836/|Too hot on Sunday, let's go to Brouffier]]</v>
+      </c>
+      <c r="C15">
         <v>9.1</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>837</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2414</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>10</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>91</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>43</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>44</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>44051</v>
       </c>
-      <c r="E16">
+      <c r="B16" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2020-08-08.jpg}}
+GPX: 
+Meetup 2020-08-08: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/272376076/|🌡️ 37°C on Saturday. Beginner 'Fresh' ❄️via ferrata along the river 🌊]]</v>
+      </c>
+      <c r="F16">
         <v>12</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>44052</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>13,4 km - d+ 83 m - top 233m
+{{https://binnette.github.io/GAC/Stats/img/2020-08-09.jpg}}
+GPX: https://s.42l.fr/gqJORTQH
+Meetup 2020-08-09: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/272193664/|Row 🚣 row 🚣 row 🚣 your boat Gently down the stream.. Life is but a dream!]]</v>
+      </c>
+      <c r="C17">
         <v>13.4</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>83</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>233</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>14</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>187.6</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>48</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>49</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>44054</v>
       </c>
-      <c r="E18">
+      <c r="B18" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2020-08-11.jpg}}
+GPX: 
+Meetup 2020-08-11: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/272501616/|Via ferrata à la Bastille 🧗‍♀️/🧗‍♂️]]</v>
+      </c>
+      <c r="F18">
         <v>5</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>51</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>44058</v>
       </c>
-      <c r="E19">
+      <c r="B19" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2020-08-15.jpg}}
+GPX: 
+Meetup 2020-08-15: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/272378928/|Journée canyoning en Vercors]]</v>
+      </c>
+      <c r="F19">
         <v>8</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>53</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>44059</v>
       </c>
-      <c r="E20">
+      <c r="B20" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2020-08-16.jpg}}
+GPX: https://s.42l.fr/b4Vurjl6
+Meetup 2020-08-16: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/272512544/|Return à Vizille (via Vélo) - Museum of the French Revolution + Hike]]</v>
+      </c>
+      <c r="F20">
         <v>14</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>55</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>56</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>44065</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>3,8 km - d+ 28 m - top 1015m
+{{https://binnette.github.io/GAC/Stats/img/2020-08-22.jpg}}
+GPX: https://s.42l.fr/dCxFZnOt
+Meetup 2020-08-22: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/272527871/|Accrobrwimmiking: Accrobranche 🌳 + Swimming 🏊‍♀️ + Hiking 🥾 !!!]]</v>
+      </c>
+      <c r="C21">
         <v>3.8</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>28</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1015</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>14</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>53.199999999999996</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>58</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>59</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>44066</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>17 km - d+ 1600 m - top 2680m
+{{https://binnette.github.io/GAC/Stats/img/2020-08-23.jpg}}
+GPX: https://frama.link/YwuXmVXG
+Meetup 2020-08-23: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/272658241/|🥾 Hike to 'Lac de la Fare' 2641m 🏊❄️ (D+ 1500 😲)]]</v>
+      </c>
+      <c r="C22">
         <v>17</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>1600</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2680</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>9</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>153</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>61</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>62</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>44087</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>9,2 km - d+ 1060 m - top 2141m
+{{https://binnette.github.io/GAC/Stats/img/2020-09-13.jpg}}
+GPX: https://www.visorando.com/randonnee-/3699638
+Meetup 2020-09-13: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/273156020/|Dré dan l'pentu / Straigth to the top -- 🥾+🏊]]</v>
+      </c>
+      <c r="C23">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1060</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>2141</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>8</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>73.599999999999994</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>64</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>65</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>44087</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>10 km - d+ 200 m - top 1050m
+{{https://binnette.github.io/GAC/Stats/img/2020-09-13.jpg}}
+GPX: https://www.visorando.com/randonnee-tour-du-grand-lac-de-laffrey/
+Meetup 2020-09-13: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/273156179/|Around the Lac de Laffrey -- 🥾+🏊]]</v>
+      </c>
+      <c r="C24">
         <v>10</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>200</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1050</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>12</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>120</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>67</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>68</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>44105</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>9 km - d+ 500 m - top 640m
+{{https://binnette.github.io/GAC/Stats/img/2020-10-01.jpg}}
+GPX: https://frama.link/KGnwLpuQ
+Meetup 2020-10-01: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/272937963/|Harvest Moon (La pleine lune de moisson) Night Hike/Rando]]</v>
+      </c>
+      <c r="C25">
         <v>9</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>500</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>640</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>18</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>162</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>70</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>71</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>44115</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>18,5 km - d+ 1350 m - top 2425m
+{{https://binnette.github.io/GAC/Stats/img/2020-10-11.jpg}}
+GPX: https://frama.link/0MwaJb99
+Meetup 2020-10-11: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/273744783/|🥾 Hike to 'Lacs du Domènon' 2400m 🌦️ (D+ 1350m 🤩)]]</v>
+      </c>
+      <c r="C26">
         <v>18.5</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1350</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>2425</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>9</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>166.5</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>73</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>74</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>44128</v>
       </c>
-      <c r="E27">
+      <c r="B27" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2020-10-24.jpg}}
+GPX: 
+Meetup 2020-10-24: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/272628657/|Saint-Nizier du Moucherotte and Three Virgins (Hike) + Mölkky]]</v>
+      </c>
+      <c r="F27">
         <v>32</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>76</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>44184</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>3,3 km - d+ 338 m - top 1320m
+{{https://binnette.github.io/GAC/Stats/img/2020-12-19.jpg}}
+GPX: Trace in comment
+Meetup 2020-12-19: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/275198024/|We are going, snowshoeing!🏔️]]</v>
+      </c>
+      <c r="C28">
         <v>3.3</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>338</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1320</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>10</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>33</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>78</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>79</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>44190</v>
       </c>
-      <c r="E29">
+      <c r="B29" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2020-12-25.jpg}}
+GPX: 
+Meetup 2020-12-25: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/275347843/|Christmas Day 2020 “On The Rocks” 🥃 🏔]]</v>
+      </c>
+      <c r="F29">
         <v>5</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>81</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>44192</v>
       </c>
-      <c r="E30">
+      <c r="B30" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2020-12-27.jpg}}
+GPX: 
+Meetup 2020-12-27: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/275376831/|Christmas 2020 Hike Vol. II (Rocher de l'Église)]]</v>
+      </c>
+      <c r="F30">
         <v>6</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>83</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>44205</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>11,5 km - d+ 480 m - top 595m
+{{https://binnette.github.io/GAC/Stats/img/2021-01-09.jpg}}
+GPX: https://frama.link/yD_bbRhw
+Meetup 2021-01-09: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/275607055/|🥾 Hike 🥾 - 🌳 "Le chêne remarquable de Venon" 🌳]]</v>
+      </c>
+      <c r="C31">
         <v>11.5</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>480</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>595</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>6</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>69</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>85</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>86</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>44206</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>15,4 km - d+ 969 m - top 823m
+{{https://binnette.github.io/GAC/Stats/img/2021-01-10.jpg}}
+GPX: https://frama.link/Twod8TPZ
+Meetup 2021-01-10: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/275600643/|Weekend Hike: Sassenage Area, Chemin des Cuves, Suivez Le Furon, Mur de Satan]]</v>
+      </c>
+      <c r="C32">
         <v>15.4</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>969</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>823</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>5</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>77</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>88</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>89</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>44233</v>
       </c>
-      <c r="E33">
+      <c r="B33" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2021-02-06.jpg}}
+GPX: https://s.42l.fr/wA-rQRtZ
+Meetup 2021-02-06: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/275959229/|snowtubing/sledging + snowshoeing + snowcializing + snowfunning = great memories]]</v>
+      </c>
+      <c r="F33">
         <v>13</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>91</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>92</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>44241</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>7 km - d+ 524 m - top 635m
+{{https://binnette.github.io/GAC/Stats/img/2021-02-14.jpg}}
+GPX: https://s.42l.fr/TqWwBB03
+Meetup 2021-02-14: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/275008068/|💗 Le Bastille by Another Way (via La Tronche) ❤️]]</v>
+      </c>
+      <c r="C34">
         <v>7</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>524</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>635</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>16</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>112</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>94</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>95</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>96</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>44248</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>15,8 km - d+ 436 m - top 455m
+{{https://binnette.github.io/GAC/Stats/img/2021-02-21.jpg}}
+GPX: https://s.42l.fr/jmJvISz_
+Meetup 2021-02-21: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/276395387/|🥾 Hike - 🏰 "Bon Repos" Castle]]</v>
+      </c>
+      <c r="C35">
         <v>15.8</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>436</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>455</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>18</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G35" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>284.40000000000003</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>98</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>99</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>44254</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>12,8 km - d+ 567 m - top 576m
+{{https://binnette.github.io/GAC/Stats/img/2021-02-27.jpg}}
+GPX: https://s.42l.fr/MujeHgdT
+Meetup 2021-02-27: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/276581633/|🥾 Hike - "Herbeys et son plateau de Romage" (Easy hike to enjoy sun 🌞)]]</v>
+      </c>
+      <c r="C36">
         <v>12.8</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>567</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>576</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>7</v>
       </c>
-      <c r="F36" s="1">
+      <c r="G36" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>89.600000000000009</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>101</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>102</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>44261</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>9,92 km - d+ 391 m - top 512m
+{{https://binnette.github.io/GAC/Stats/img/2021-03-06.jpg}}
+GPX: https://s.42l.fr/nS3gJIWm
+Meetup 2021-03-06: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/276733284/|🥾 Hike - Le fort de Comboire (Easy hike to enjoy rain 🌧️🐌)]]</v>
+      </c>
+      <c r="C37">
         <v>9.92</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>391</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>512</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>14</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G37" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>138.88</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>104</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>105</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>44268</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>15,6 km - d+ 1362 m - top 1089m
+{{https://binnette.github.io/GAC/Stats/img/2021-03-13.jpg}}
+GPX: https://s.42l.fr/I71ZHdYN
+Meetup 2021-03-13: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/276803120/|🥾 Hike - "L'Aiguille de Chalais" 😍]]</v>
+      </c>
+      <c r="C38">
         <v>15.6</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>1362</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>1089</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>17</v>
       </c>
-      <c r="F38" s="1">
+      <c r="G38" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>265.2</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>107</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>108</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>44329</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>11 km - d+ 1045 m - top 1046m
+{{https://binnette.github.io/GAC/Stats/img/2021-05-13.jpg}}
+GPX: https://s.42l.fr/xE1yPtD0
+Meetup 2021-05-13: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/278136992|🥾 Hike - Back to the basics: Jalla and/or Rachais 😎]]</v>
+      </c>
+      <c r="C39">
         <v>11</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>1045</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>1046</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>12</v>
       </c>
-      <c r="F39" s="1">
+      <c r="G39" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>132</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>110</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>111</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>44331</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>14 km - d+ 850 m - top 1771m
+{{https://binnette.github.io/GAC/Stats/img/2021-05-15.jpg}}
+GPX: https://s.42l.fr/_mYJ72SH
+Meetup 2021-05-15: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/278177608|🥾 Hike: Pinéa + Charmant Som 🗻]]</v>
+      </c>
+      <c r="C40">
         <v>14</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>850</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>1771</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>7</v>
       </c>
-      <c r="F40" s="1">
+      <c r="G40" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>98</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>113</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>114</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>44339</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>14 km - d+ 890 m - top 1966m
+{{https://binnette.github.io/GAC/Stats/img/2021-05-23.jpg}}
+GPX: https://s.42l.fr/y4m08nhq
+Meetup 2021-05-23: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/278286484|🥾 Hike: Vertige des Cimes + Pic St-Michel 😱]]</v>
+      </c>
+      <c r="C41">
         <v>14</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>890</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>1966</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>27</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>378</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>116</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>117</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>44346</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>16,5 km - d+ 700 m - top 1926m
+{{https://binnette.github.io/GAC/Stats/img/2021-05-30.jpg}}
+GPX: https://s.42l.fr/8zUZUf4i
+Meetup 2021-05-30: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/278257641|🥾 Hike: Le Grand Rocher 🌲🌳]]</v>
+      </c>
+      <c r="C42">
         <v>16.5</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>700</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>1926</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>25</v>
       </c>
-      <c r="F42" s="1">
+      <c r="G42" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>412.5</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>119</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>120</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>44353</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>16,6 km - d+ 660 m - top 1769m
+{{https://binnette.github.io/GAC/Stats/img/2021-06-06.jpg}}
+GPX: https://s.42l.fr/NVg9oEHR
+Meetup 2021-06-06: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/278590932|🥾 Hike: Le Sénépy not so easy? 😅☔]]</v>
+      </c>
+      <c r="C43">
         <v>16.600000000000001</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>660</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>1769</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>30</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>498.00000000000006</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>122</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>123</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>44365</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>6,5 km - d+ 580 m - top 635m
+{{https://binnette.github.io/GAC/Stats/img/2021-06-18.jpg}}
+GPX: comment
+Meetup 2021-06-18: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/278640679|Night Hike/Rando: Bastile my Moonlight (To celebrate change in Curfew)]]</v>
+      </c>
+      <c r="C44">
         <v>6.5</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>580</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>635</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>34</v>
       </c>
-      <c r="F44" s="1">
+      <c r="G44" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>221</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>125</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>126</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>44366</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>6,6 km - d+ 200 m - top 381m
+{{https://binnette.github.io/GAC/Stats/img/2021-06-19.jpg}}
+GPX: https://s.42l.fr/eS1BeHZJ
+Meetup 2021-06-19: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/278870107|😎 Chill: spend the heatwave near a 🥶🧊 river]]</v>
+      </c>
+      <c r="C45">
         <v>6.6</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>200</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>381</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>13</v>
       </c>
-      <c r="F45" s="1">
+      <c r="G45" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>85.8</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>128</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>129</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>44368</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>5,2 km - d+ 0 m - top 213m
+{{https://binnette.github.io/GAC/Stats/img/2021-06-21.jpg}}
+GPX: StreetArt Visite.gpx
+Meetup 2021-06-21: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/278974564|📷 Visit: No Music Festival tonight, then let's enjoy some street art 🎨✨]]</v>
+      </c>
+      <c r="C46">
         <v>5.2</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>0</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>213</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>8</v>
       </c>
-      <c r="F46" s="1">
+      <c r="G46" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>41.6</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>131</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>132</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>44373</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>14,5 km - d+ 990 m - top 1987m
+{{https://binnette.github.io/GAC/Stats/img/2021-06-26.jpg}}
+GPX: https://s.42l.fr/CQVBzcm2
+Meetup 2021-06-26: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/279039579|🥾 Hike: Lac de la Moucherolle 🏊‍♀️🥶]]</v>
+      </c>
+      <c r="C47">
         <v>14.5</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>990</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>1987</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>20</v>
       </c>
-      <c r="F47" s="1">
+      <c r="G47" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>290</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>134</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>135</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>44378</v>
       </c>
-      <c r="E48">
+      <c r="B48" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2021-07-01.jpg}}
+GPX: 
+Meetup 2021-07-01: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/279129705|🍺 Apéro + 🧗‍♂️ Climbing for noobs]]</v>
+      </c>
+      <c r="F48">
         <v>22</v>
       </c>
-      <c r="F48" s="1">
+      <c r="G48" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>137</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>44379</v>
       </c>
-      <c r="E49">
+      <c r="B49" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2021-07-02.jpg}}
+GPX: 
+Meetup 2021-07-02: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/279188833|🛼 Roller: "Grenoble roller hike" is back]]</v>
+      </c>
+      <c r="F49">
         <v>3</v>
       </c>
-      <c r="F49" s="1">
+      <c r="G49" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>139</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>44380</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>10 km - d+ 630 m - top 1407m
+{{https://binnette.github.io/GAC/Stats/img/2021-07-03.jpg}}
+GPX: https://s.42l.fr/1r0e2-C8
+Meetup 2021-07-03: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/279213815|🥾 Hike: Easy hike around Le Sappey and L'Ecoutoux 😎]]</v>
+      </c>
+      <c r="C50">
         <v>10</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>630</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>1407</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>15</v>
       </c>
-      <c r="F50" s="1">
+      <c r="G50" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>150</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>141</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>142</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>44381</v>
       </c>
-      <c r="E51">
+      <c r="B51" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2021-07-04.jpg}}
+GPX: 
+Meetup 2021-07-04: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/279171624|🔦Speleology in Vercors: Grotte des Eymards (Eymards Cave) 🧗]]</v>
+      </c>
+      <c r="F51">
         <v>9</v>
       </c>
-      <c r="F51" s="1">
+      <c r="G51" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>144</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>44379</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>8 km - d+ 750 m - top 2082m
+{{https://binnette.github.io/GAC/Stats/img/2021-07-02.jpg}}
+GPX: comment
+Meetup 2021-07-02: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/279179867/|Afterwork hike : Sunset at Chamechaude]]</v>
+      </c>
+      <c r="C52">
         <v>8</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>750</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>2082</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>3</v>
       </c>
-      <c r="F52" s="1">
+      <c r="G52" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>24</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>146</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>147</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>44387</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>8,4 km - d+ 806 m - top 2083m
+{{https://binnette.github.io/GAC/Stats/img/2021-07-10.jpg}}
+GPX: https://s.42l.fr/QAlWe3pD
+Meetup 2021-07-10: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/279313627|🥾⛺ 2 days/1 night hike: only for GOOD hikers 🐐]]</v>
+      </c>
+      <c r="C53">
         <v>8.4</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>806</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>2083</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>11</v>
       </c>
-      <c r="F53" s="1">
+      <c r="G53" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>92.4</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>148</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>149</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>150</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>44388</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>14,2 km - d+ 1234 m - top 2341m
+{{https://binnette.github.io/GAC/Stats/img/2021-07-11.jpg}}
+GPX: https://s.42l.fr/r37xi2iT
+Meetup 2021-07-11: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/279313627|🥾⛺ 2 days/1 night hike: only for GOOD hikers 🐐]]</v>
+      </c>
+      <c r="C54">
         <v>14.2</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>1234</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>2341</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>11</v>
       </c>
-      <c r="F54" s="1">
+      <c r="G54" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>156.19999999999999</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>148</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>149</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>152</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>44399</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>9 km - d+ 750 m - top 1901m
+{{https://binnette.github.io/GAC/Stats/img/2021-07-22.jpg}}
+GPX: comment
+Meetup 2021-07-22: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/279598655/|Afterwork hike : Sunset at Moucherotte]]</v>
+      </c>
+      <c r="C55">
         <v>9</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>750</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>1901</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>3</v>
       </c>
-      <c r="F55" s="1">
+      <c r="G55" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>27</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>154</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>155</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>44401</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>10,2 km - d+ 856 m - top 951m
+{{https://binnette.github.io/GAC/Stats/img/2021-07-24.jpg}}
+GPX: https://s.42l.fr/lLzUJMY2
+Meetup 2021-07-24: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/279618542|🥾 Hike: Easy hike around La Cuche (+maybe some cold stream 🏊‍♀️)]]</v>
+      </c>
+      <c r="C56">
         <v>10.199999999999999</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>856</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>951</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>23</v>
       </c>
-      <c r="F56" s="1">
+      <c r="G56" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>234.6</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>156</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>157</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>44409</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>13,5 km - d+ 700 m - top 1643m
+{{https://binnette.github.io/GAC/Stats/img/2021-08-01.jpg}}
+GPX: https://s.42l.fr/lVyODh6Y
+Meetup 2021-08-01: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/279800883|🥾 Hike: GR9 - La Buffe 🗻 1623m - La Sure 🗻1643m]]</v>
+      </c>
+      <c r="C57">
         <v>13.5</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>700</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>1643</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>21</v>
       </c>
-      <c r="F57" s="1">
+      <c r="G57" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>283.5</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>159</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>160</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>44415</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>15 km - d+ 1127 m - top 2208m
+{{https://binnette.github.io/GAC/Stats/img/2021-08-07.jpg}}
+GPX: https://s.42l.fr/MfGJyGuM
+Meetup 2021-08-07: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/279039077|🥾 Hike: Sanctuaire de N.-D. de la Salette ⛪]]</v>
+      </c>
+      <c r="C58">
         <v>15</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>1127</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>2208</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>17</v>
       </c>
-      <c r="F58" s="1">
+      <c r="G58" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>255</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>162</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>163</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>44416</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>15 km - d+ 950 m - top 722m
+{{https://binnette.github.io/GAC/Stats/img/2021-08-08.jpg}}
+GPX: https://s.42l.fr/_MqyjH8A
+Meetup 2021-08-08: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/279954414|🥾 Hike: around Néron + up to Jalla (+maybe some cold stream 🏊‍♀️)]]</v>
+      </c>
+      <c r="C59">
         <v>15</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>950</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>722</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>5</v>
       </c>
-      <c r="F59" s="1">
+      <c r="G59" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>75</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>165</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>166</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>44420</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>7,4 km - d+ 475 m - top 635m
+{{https://binnette.github.io/GAC/Stats/img/2021-08-12.jpg}}
+GPX: https://s.42l.fr/VciaZ431
+Meetup 2021-08-12: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/280013297/|🌠⛺ Night of the shooting stars! Let's go to Jalla (and why not sleep there) 🌠]]</v>
+      </c>
+      <c r="C60">
         <v>7.4</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>475</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>635</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>10</v>
       </c>
-      <c r="F60" s="1">
+      <c r="G60" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>74</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>168</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>169</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>44422</v>
       </c>
-      <c r="E61">
+      <c r="B61" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2021-08-14.jpg}}
+GPX: 
+Meetup 2021-08-14: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/279907865/|2nd try - Canyoning in Vercors (Partie Basse les Ecouges): 🌊🧗]]</v>
+      </c>
+      <c r="F61">
         <v>9</v>
       </c>
-      <c r="F61" s="1">
+      <c r="G61" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>171</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>44422</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>18 km - d+ 1232 m - top 2420m
+{{https://binnette.github.io/GAC/Stats/img/2021-08-14.jpg}}
+GPX: https://s.42l.fr/2Mzq-xbQ
+Meetup 2021-08-14: [[https://www.meetup.com/fr-FR/Grenoble-Adventure-Club-English-French/events/280053697/|🥾 Hike: too hot on Saturday, let's swim in a 2400m lake 🥶😱]]</v>
+      </c>
+      <c r="C62">
         <v>18</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>1232</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>2420</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>21</v>
       </c>
-      <c r="F62" s="1">
+      <c r="G62" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>378</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>173</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>174</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>44423</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>11 km - d+ 70 m - top m
+{{https://binnette.github.io/GAC/Stats/img/2021-08-15.jpg}}
+GPX: https://s.42l.fr/hbxWc5uW
+Meetup 2021-08-15: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/280070147/|🥾🏊‍♀️ Hike: too hot on Sunday, enjoy the lake "Bois Français" 🏊‍♀️🌞]]</v>
+      </c>
+      <c r="C63">
         <v>11</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>70</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>1</v>
       </c>
-      <c r="F63" s="1">
+      <c r="G63" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>11</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>176</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>177</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>44423</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>11 km - d+ 70 m - top 232m
+{{https://binnette.github.io/GAC/Stats/img/2021-08-15.jpg}}
+GPX: https://s.42l.fr/hbxWc5uW
+Meetup 2021-08-15: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/280011169/|🚣 Canoe: 11km hike to Bois Français and back in Grenoble with 20km canoe 🚣]]</v>
+      </c>
+      <c r="C64">
         <v>11</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>70</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>232</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>20</v>
       </c>
-      <c r="F64" s="1">
+      <c r="G64" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>220</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>179</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>180</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>44429</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>14 km - d+ 981 m - top 2241m
+{{https://binnette.github.io/GAC/Stats/img/2021-08-21.jpg}}
+GPX: https://s.42l.fr/jph6_-wT
+Meetup 2021-08-21: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/280199683/|🧗‍♂️🥾 Via-Ferrata: hike + 2 via near Lacs Robert (2000m lakes swim 🥶)]]</v>
+      </c>
+      <c r="C65">
         <v>14</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>981</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>2241</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>21</v>
       </c>
-      <c r="F65" s="1">
+      <c r="G65" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>294</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>181</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>182</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>44430</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>15,3 km - d+ 419 m - top 690m
+{{https://binnette.github.io/GAC/Stats/img/2021-08-22.jpg}}
+GPX: 
+Meetup 2021-08-22: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/280081009/|Once more unto the bridges, dear friends, once more!]]</v>
+      </c>
+      <c r="C66">
         <v>15.3</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>419</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>690</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>32</v>
       </c>
-      <c r="F66" s="1">
+      <c r="G66" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>489.6</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>184</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>44437</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>12 km - d+ 644 m - top 700m
+{{https://binnette.github.io/GAC/Stats/img/2021-08-29.jpg}}
+GPX: https://s.42l.fr/iUMrGs28
+Meetup 2021-08-29: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/280365369/|🥾 Hike: Rocher de la Garde + refreshing 'surprise' 😍]]</v>
+      </c>
+      <c r="C67">
         <v>12</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>644</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>700</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>29</v>
       </c>
-      <c r="F67" s="1">
+      <c r="G67" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>348</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>186</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>187</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>44443</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>7,62 km - d+ 684 m - top 2062m
+{{https://binnette.github.io/GAC/Stats/img/2021-09-04.jpg}}
+GPX: topo&lt;https://graphhopper.com/maps/?point=45.304671%2C5.838976&amp;point=45.310131%2C5.842336&amp;point=45.310493%2C5.845596&amp;point=45.309228%2C5.854182&amp;point=45.308212%2C5.855548&amp;point=45.317279%2C5.851439&amp;point=45.304658%2C5.839051&amp;locale=en-GB&amp;elevation=true&amp;profile=hike&amp;use_miles=false&amp;selected_detail=Elevation&amp;layer=OpenStreetMap&gt;
+Meetup 2021-09-04: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/280491067/|🥾 Hike: Le Dent de Crolles]]</v>
+      </c>
+      <c r="C68">
         <v>7.62</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>684</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>2062</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>11</v>
       </c>
-      <c r="F68" s="1">
+      <c r="G68" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>83.820000000000007</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>189</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>190</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>44451</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>6 km - d+ 362 m - top m
+{{https://binnette.github.io/GAC/Stats/img/2021-09-12.jpg}}
+GPX: 
+Meetup 2021-09-12: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/280647897/|Easy Hike: Le Belvédère de Vizille]]</v>
+      </c>
+      <c r="C69">
         <v>6</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>362</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>35</v>
       </c>
-      <c r="F69" s="1">
+      <c r="G69" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>210</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>192</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>44457</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>9,31 km - d+ 577 m - top 1923m
+{{https://binnette.github.io/GAC/Stats/img/2021-09-18.jpg}}
+GPX: 
+Meetup 2021-09-18: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/280800846/|🥾 Pic St-Michel 🥾]]</v>
+      </c>
+      <c r="C70">
         <v>9.31</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>577</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>1923</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>3</v>
       </c>
-      <c r="F70" s="1">
+      <c r="G70" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>27.93</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>194</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>44458</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>7 km - d+ 793 m - top 2082m
+{{https://binnette.github.io/GAC/Stats/img/2021-09-19.jpg}}
+GPX: topo&lt;https://graphhopper.com/maps/?point=45.289728%2C5.767097&amp;point=45.28227%2C5.778768&amp;point=45.281818%2C5.778739&amp;point=45.282958%2C5.78377&amp;point=45.287702%2C5.788001&amp;point=45.290265%2C5.767449&amp;locale=en-IE&amp;elevation=true&amp;profile=hike&amp;use_miles=false&amp;selected_detail=Elevation&amp;layer=TF%20Outdoors&gt;
+Meetup 2021-09-19: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/280799948/|Moderate Hike: Chamechaude (+Basic Technical Skills)]]</v>
+      </c>
+      <c r="C71">
         <v>7</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>793</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>2082</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>14</v>
       </c>
-      <c r="F71" s="1">
+      <c r="G71" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>98</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>196</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>197</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>44463</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>3 km - d+ 204 m - top 1851m
+{{https://binnette.github.io/GAC/Stats/img/2021-09-24.jpg}}
+GPX: 
+Meetup 2021-09-24: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/280971141/|Afterwork hike : Sunset at Charmant Som]]</v>
+      </c>
+      <c r="C72">
         <v>3</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>204</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>1851</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>9</v>
       </c>
-      <c r="F72" s="1">
+      <c r="G72" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>27</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>199</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>44464</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>16 km - d+ 2000 m - top 2928m
+{{https://binnette.github.io/GAC/Stats/img/2021-09-25.jpg}}
+GPX: 
+Meetup 2021-09-25: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/280986658/|Hike : Le Rocher Blanc (top at 2928m)]]</v>
+      </c>
+      <c r="C73">
         <v>16</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>2000</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>2928</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>3</v>
       </c>
-      <c r="F73" s="1">
+      <c r="G73" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>48</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>201</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>44464</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>8 km - d+ 600 m - top m
+{{https://binnette.github.io/GAC/Stats/img/2021-09-25.jpg}}
+GPX: 
+Meetup 2021-09-25: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/280948002/|🥾 Hike: La Pinea and Charmant Som from Col de Port]]</v>
+      </c>
+      <c r="C74">
         <v>8</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>600</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>11</v>
       </c>
-      <c r="F74" s="1">
+      <c r="G74" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>88</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>203</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>44471</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>16 km - d+ 1400 m - top m
+{{https://binnette.github.io/GAC/Stats/img/2021-10-02.jpg}}
+GPX: 
+Meetup 2021-10-02: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/281127669/|Hike : La grande lance de Domène (top at 2790m)]]</v>
+      </c>
+      <c r="C75">
         <v>16</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>1400</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>7</v>
       </c>
-      <c r="F75" s="1">
+      <c r="G75" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>112</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>205</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>44471</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>8,3 km - d+ 1372 m - top 1939m
+{{https://binnette.github.io/GAC/Stats/img/2021-10-02.jpg}}
+GPX: 
+Meetup 2021-10-02: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/281088533/|🥾 Hike to Lac du Crozet 🏞]]</v>
+      </c>
+      <c r="C76">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>1372</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>1939</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>29</v>
       </c>
-      <c r="F76" s="1">
+      <c r="G76" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>240.70000000000002</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>207</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>44478</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>7,3 km - d+ 321 m - top 1711m
+{{https://binnette.github.io/GAC/Stats/img/2021-10-09.jpg}}
+GPX: https://s.42l.fr/J8cZvHTK
+Meetup 2021-10-09: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/281266956/|🥾 Hike: Beauregard + Peyrouse 😎🐛🐔]]</v>
+      </c>
+      <c r="C77">
         <v>7.3</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>321</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>1711</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>16</v>
       </c>
-      <c r="F77" s="1">
+      <c r="G77" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>116.8</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>209</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>210</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>44479</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>14,4 km - d+ 1310 m - top 2857m
+{{https://binnette.github.io/GAC/Stats/img/2021-10-10.jpg}}
+GPX: https://s.42l.fr/6Ge5j1Qz
+Meetup 2021-10-10: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/281266733/|🥾 Hike: Le Taillefer 🗻🤯 + Lac du Brouffier 🥵🥶]]</v>
+      </c>
+      <c r="C78">
         <v>14.4</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>1310</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>2857</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>18</v>
       </c>
-      <c r="F78" s="1">
+      <c r="G78" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>259.2</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>212</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>213</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>44485</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>22 km - d+ 1500 m - top 2480m
+{{https://binnette.github.io/GAC/Stats/img/2021-10-16.jpg}}
+GPX: https://s.42l.fr/INppDj6A https://s.42l.fr/QfOHjFiN
+Meetup 2021-10-16: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/281408280/|2 days hike with an outdoor night high in the mountains, close to Chamonix]]</v>
+      </c>
+      <c r="C79">
         <v>22</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>1500</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>2480</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>8</v>
       </c>
-      <c r="F79" s="1">
+      <c r="G79" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>176</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>215</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>216</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>44486</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>6 km - d+ 550 m - top 1560m
+{{https://binnette.github.io/GAC/Stats/img/2021-10-17.jpg}}
+GPX: https://s.42l.fr/VNU65khi
+Meetup 2021-10-17: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/281422283/|🥾Hiking up, zipline down / bring your *** out of town🥾]]</v>
+      </c>
+      <c r="C80">
         <v>6</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>550</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>1560</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>14</v>
       </c>
-      <c r="F80" s="1">
+      <c r="G80" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>84</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>218</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>219</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>44492</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>9 km - d+ 600 m - top 1391m
+{{https://binnette.github.io/GAC/Stats/img/2021-10-23.jpg}}
+GPX: 
+Meetup 2021-10-23: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/281602362/|🥾 Moderate Hike: Tour du monastère de la grande chartreuse ⛪]]</v>
+      </c>
+      <c r="C81">
         <v>9</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>600</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>1391</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>5</v>
       </c>
-      <c r="F81" s="1">
+      <c r="G81" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>45</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>221</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>44492</v>
       </c>
-      <c r="E82">
+      <c r="B82" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2021-10-23.jpg}}
+GPX: 
+Meetup 2021-10-23: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/281610094/|Last minute hike : le lac blanc]]</v>
+      </c>
+      <c r="F82">
         <v>1</v>
       </c>
-      <c r="F82" s="1">
+      <c r="G82" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>223</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>44493</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>9,1 km - d+ 770 m - top 1901m
+{{https://binnette.github.io/GAC/Stats/img/2021-10-24.jpg}}
+GPX: https://s.42l.fr/le-moucherotte
+Meetup 2021-10-24: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/281576827/|Moderate Hike: Le Moucherotte]]</v>
+      </c>
+      <c r="C83">
         <v>9.1</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>770</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>1901</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>20</v>
       </c>
-      <c r="F83" s="1">
+      <c r="G83" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>182</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>225</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>226</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>44500</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>10,4 km - d+ 519 m - top 975m
+{{https://binnette.github.io/GAC/Stats/img/2021-10-31.jpg}}
+GPX: https://s.42l.fr/samYLCpB
+Meetup 2021-10-31: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/281770338/| 🥾 Hike: Belvedere du Puy 😎]]</v>
+      </c>
+      <c r="C84">
         <v>10.4</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>519</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>975</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>18</v>
       </c>
-      <c r="F84" s="1">
+      <c r="G84" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>187.20000000000002</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>228</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>229</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>44506</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>12 km - d+ 1100 m - top m
+{{https://binnette.github.io/GAC/Stats/img/2021-11-06.jpg}}
+GPX: 
+Meetup 2021-11-06: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/281896978/|Hike in snow : Le grand Veymont (highest top of Vercors)]]</v>
+      </c>
+      <c r="C85">
         <v>12</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>1100</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>4</v>
       </c>
-      <c r="F85" s="1">
+      <c r="G85" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>48</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>231</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>44507</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>6,5 km - d+ 455 m - top 1441m
+{{https://binnette.github.io/GAC/Stats/img/2021-11-07.jpg}}
+GPX: https://s.42l.fr/HaAl
+Meetup 2021-11-07: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/281924819/| 🥾 Hike: Rocher de l'Épérimont 😎🍁🍂]]</v>
+      </c>
+      <c r="C86">
         <v>6.5</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>455</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>1441</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>9</v>
       </c>
-      <c r="F86" s="1">
+      <c r="G86" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>58.5</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>233</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>234</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>44507</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>8 km - d+ 400 m - top m
+{{https://binnette.github.io/GAC/Stats/img/2021-11-07.jpg}}
+GPX: 
+Meetup 2021-11-07: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/281925413/|Hike above clouds : Le bec de l’Orient]]</v>
+      </c>
+      <c r="C87">
         <v>8</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>400</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>2</v>
       </c>
-      <c r="F87" s="1">
+      <c r="G87" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>16</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>236</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>44514</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>7 km - d+ 350 m - top 1115m
+{{https://binnette.github.io/GAC/Stats/img/2021-11-14.jpg}}
+GPX: https://s.42l.fr/t0SzeyUz
+Meetup 2021-11-14: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/282066634/| 🥾 Hike: Gorges du Bruyant + Bec de l'Aigle 🐟️🍁]]</v>
+      </c>
+      <c r="C88">
         <v>7</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>350</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>1115</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>26</v>
       </c>
-      <c r="F88" s="1">
+      <c r="G88" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>182</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>238</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>239</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>44518</v>
       </c>
-      <c r="E89">
+      <c r="B89" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2021-11-18.jpg}}
+GPX: 
+Meetup 2021-11-18: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/281901125/|Concert at la belle électrique : French 79 (électro)]]</v>
+      </c>
+      <c r="F89">
         <v>17</v>
       </c>
-      <c r="F89" s="1">
+      <c r="G89" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>241</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>44521</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>6,5 km - d+ 530 m - top 800m
+{{https://binnette.github.io/GAC/Stats/img/2021-11-21.jpg}}
+GPX: https://s.42l.fr/69OtrJ43
+Meetup 2021-11-21: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/282222497/| 🥾 Hike: Le belvédère du Scialet 💨🙆]]</v>
+      </c>
+      <c r="C90">
         <v>6.5</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>530</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>800</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>15</v>
       </c>
-      <c r="F90" s="1">
+      <c r="G90" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>97.5</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>243</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>244</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>44528</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>7,6 km - d+ 328 m - top 540m
+{{https://binnette.github.io/GAC/Stats/img/2021-11-28.jpg}}
+GPX: https://s.42l.fr/Fd4UYTYO
+Meetup 2021-11-28: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/282327646/| 🥾 Hike: They call this place "Bellevue" so... let's give it a try 😅❄]]</v>
+      </c>
+      <c r="C91">
         <v>7.6</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>328</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>540</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>12</v>
       </c>
-      <c r="F91" s="1">
+      <c r="G91" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>91.199999999999989</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>246</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>247</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>44534</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>8 km - d+ 520 m - top 625m
+{{https://binnette.github.io/GAC/Stats/img/2021-12-04.jpg}}
+GPX: https://s.42l.fr/BBnziuEy
+Meetup 2021-12-04: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/282472942/| 🥾 Hike: NUMBER 100!!! 🎉🎉 Mont Jalla: classic but 'must-do' 😊]]</v>
+      </c>
+      <c r="C92">
         <v>8</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>520</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>625</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>5</v>
       </c>
-      <c r="F92" s="1">
+      <c r="G92" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>40</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>249</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>250</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>44541</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>10 km - d+ 650 m - top m
+{{https://binnette.github.io/GAC/Stats/img/2021-12-11.jpg}}
+GPX: 
+Meetup 2021-12-11: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/282572785/|Snowshoe hike to le Pic St Michel]]</v>
+      </c>
+      <c r="C93">
         <v>10</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>650</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>3</v>
       </c>
-      <c r="F93" s="1">
+      <c r="G93" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>30</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>252</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>44542</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>6 km - d+ 300 m - top 1971m
+{{https://binnette.github.io/GAC/Stats/img/2021-12-12.jpg}}
+GPX: https://cutt.ly/ZYEA9zH
+Meetup 2021-12-12: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/282585004/|snowfunning (Episode 2)🛷☃️❄️⛰️]]</v>
+      </c>
+      <c r="C94">
         <v>6</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>300</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>1971</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>5</v>
       </c>
-      <c r="F94" s="1">
+      <c r="G94" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>30</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>254</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>255</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>44548</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>7 km - d+ 700 m - top m
+{{https://binnette.github.io/GAC/Stats/img/2021-12-18.jpg}}
+GPX: 
+Meetup 2021-12-18: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/282743681/|Snowshoe hike to le Moucherotte : sunset and full moon]]</v>
+      </c>
+      <c r="C95">
         <v>7</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>700</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>8</v>
       </c>
-      <c r="F95" s="1">
+      <c r="G95" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>56</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>257</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>44562</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>32 km - d+ 1600 m - top m
+{{https://binnette.github.io/GAC/Stats/img/2022-01-01.jpg}}
+GPX: 
+Meetup 2022-01-01: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/282972158/|2 days snowshoes hike to La Grande Sure]]</v>
+      </c>
+      <c r="C96">
         <v>32</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>1600</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>4</v>
       </c>
-      <c r="F96" s="1">
+      <c r="G96" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>128</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>259</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>44563</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>9 km - d+ 425 m - top m
+{{https://binnette.github.io/GAC/Stats/img/2022-01-02.jpg}}
+GPX: https://s.42l.fr/jQz9o7yX
+Meetup 2022-01-02: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/282994993/| 🥾 Hike: Let's have a "Bellevue" to start 2022 😅🥳]]</v>
+      </c>
+      <c r="C97">
         <v>9</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>425</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>17</v>
       </c>
-      <c r="F97" s="1">
+      <c r="G97" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>153</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>261</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>262</v>
       </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>44569</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>7 km - d+ 450 m - top 610m
+{{https://binnette.github.io/GAC/Stats/img/2022-01-08.jpg}}
+GPX: https://s.42l.fr/fb5MXhaq
+Meetup 2022-01-08: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/283127503/| 🥾 Hike: Venon tree 🌳 from the path of "Pissevieille" 👵]]</v>
+      </c>
+      <c r="C98">
         <v>7</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>450</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>610</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>18</v>
       </c>
-      <c r="F98" s="1">
+      <c r="G98" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>126</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>264</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>265</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>44576</v>
       </c>
-      <c r="E99">
+      <c r="B99" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2022-01-15.jpg}}
+GPX: 
+Meetup 2022-01-15: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/283261440/| 🎿 Ski: Ski for NOOB ONLY. Beginner training ⛷]]</v>
+      </c>
+      <c r="F99">
         <v>10</v>
       </c>
-      <c r="F99" s="1">
+      <c r="G99" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>267</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>44576</v>
       </c>
-      <c r="E100">
+      <c r="B100" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2022-01-15.jpg}}
+GPX: 
+Meetup 2022-01-15: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/283271898/|Ski by night at Chamrousse – Not for noob]]</v>
+      </c>
+      <c r="F100">
         <v>1</v>
       </c>
-      <c r="F100" s="1">
+      <c r="G100" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>269</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>44577</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>7 km - d+ 700 m - top m
+{{https://binnette.github.io/GAC/Stats/img/2022-01-16.jpg}}
+GPX: 
+Meetup 2022-01-16: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/283271550/|Snowshoe hike to le Moucherotte : sunset and full moon]]</v>
+      </c>
+      <c r="C101">
         <v>7</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>700</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>11</v>
       </c>
-      <c r="F101" s="1">
+      <c r="G101" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>77</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>257</v>
       </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>44583</v>
       </c>
-      <c r="E102">
+      <c r="B102" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2022-01-22.jpg}}
+GPX: 
+Meetup 2022-01-22: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/283400313/| 🎿 Ski: Ski for beginners at Chamrousse ⛷]]</v>
+      </c>
+      <c r="F102">
         <v>16</v>
       </c>
-      <c r="F102" s="1">
+      <c r="G102" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>272</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>44583</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>7,5 km - d+ 200 m - top 310m
+{{https://binnette.github.io/GAC/Stats/img/2022-01-22.jpg}}
+GPX: https://s.42l.fr/yZkRtXBj
+Meetup 2022-01-22: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/283407908/| 🥾 Hike: Around Grenoble drinking water source 🚰💧]]</v>
+      </c>
+      <c r="C103">
         <v>7.5</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>200</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>310</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>16</v>
       </c>
-      <c r="F103" s="1">
+      <c r="G103" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>120</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>274</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>275</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>44583</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>8 km - d+ 750 m - top m
+{{https://binnette.github.io/GAC/Stats/img/2022-01-22.jpg}}
+GPX: 
+Meetup 2022-01-22: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/283411967/|Snowshoe hike : Sunset at Chamechaude]]</v>
+      </c>
+      <c r="C104">
         <v>8</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>750</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>4</v>
       </c>
-      <c r="F104" s="1">
+      <c r="G104" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>32</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>277</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>44219</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>14 km - d+ 1200 m - top m
+{{https://binnette.github.io/GAC/Stats/img/2021-01-23.jpg}}
+GPX: 
+Meetup 2021-01-23: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/283411992/|Snowshoe hike : Le grand Som by the Monastery]]</v>
+      </c>
+      <c r="C105">
         <v>14</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>1200</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>4</v>
       </c>
-      <c r="F105" s="1">
+      <c r="G105" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>56</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
         <v>279</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>44584</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>7,6 km - d+ 400 m - top m
+{{https://binnette.github.io/GAC/Stats/img/2022-01-23.jpg}}
+GPX: https://s.42l.fr/ZOMxTA6u
+Meetup 2022-01-23: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/283428809/| 🥾 Hike: Around la Tour-Sans-Venin ⚔️🛡️🐍]]</v>
+      </c>
+      <c r="C106">
         <v>7.6</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>400</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>12</v>
       </c>
-      <c r="F106" s="1">
+      <c r="G106" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>91.199999999999989</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>281</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>282</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>44590</v>
       </c>
-      <c r="E107">
+      <c r="B107" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2022-01-29.jpg}}
+GPX: 
+Meetup 2022-01-29: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/283549287/| 🎿 Ski: Ski for NOOB - Session 2 ⛷]]</v>
+      </c>
+      <c r="F107">
         <v>7</v>
       </c>
-      <c r="F107" s="1">
+      <c r="G107" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>284</v>
       </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>44590</v>
       </c>
-      <c r="E108">
+      <c r="B108" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2022-01-29.jpg}}
+GPX: 
+Meetup 2022-01-29: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/283550329/| 🎿 Ski: Ski at Chamrousse (not for beginners) ⛷]]</v>
+      </c>
+      <c r="F108">
         <v>6</v>
       </c>
-      <c r="F108" s="1">
+      <c r="G108" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>286</v>
       </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>44591</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>13,5 km - d+ 420 m - top 1270m
+{{https://binnette.github.io/GAC/Stats/img/2022-01-30.jpg}}
+GPX: https://s.42l.fr/a5v4U89F
+Meetup 2022-01-30: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/283576357/| 🥾 Hike: La Pierre Percée &amp; Pierre-Châtel lake 🪨🌊]]</v>
+      </c>
+      <c r="C109">
         <v>13.5</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>420</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>1270</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>15</v>
       </c>
-      <c r="F109" s="1">
+      <c r="G109" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>202.5</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>288</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>289</v>
       </c>
-      <c r="I109" t="s">
+      <c r="J109" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>44597</v>
       </c>
-      <c r="E110">
+      <c r="B110" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2022-02-05.jpg}}
+GPX: 
+Meetup 2022-02-05: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/283713790/| 🎿 Ski: Ski at Chamrousse ⛷]]</v>
+      </c>
+      <c r="F110">
         <v>4</v>
       </c>
-      <c r="F110" s="1">
+      <c r="G110" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>291</v>
       </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>44597</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>10,5 km - d+ 450 m - top 988m
+{{https://binnette.github.io/GAC/Stats/img/2022-02-05.jpg}}
+GPX: https://s.42l.fr/9DNpYqlj
+Meetup 2022-02-05: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/283719795/| 🥾 Hike: La Dent de Moirans ⛰⛄]]</v>
+      </c>
+      <c r="C111">
         <v>10.5</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>450</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>988</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>20</v>
       </c>
-      <c r="F111" s="1">
+      <c r="G111" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>210</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>293</v>
       </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
         <v>294</v>
       </c>
-      <c r="I111" t="s">
+      <c r="J111" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
         <v>44598</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>10 km - d+ 470 m - top 1025m
+{{https://binnette.github.io/GAC/Stats/img/2022-02-06.jpg}}
+GPX: https://s.42l.fr/HIGAW
+Meetup 2022-02-06: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/283740630/| 🥾 Hike: La Tour de Montfallet ⛰]]</v>
+      </c>
+      <c r="C112">
         <v>10</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>470</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>1025</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>18</v>
       </c>
-      <c r="F112" s="1">
+      <c r="G112" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>180</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
         <v>296</v>
       </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
         <v>297</v>
       </c>
-      <c r="I112" t="s">
+      <c r="J112" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>44604</v>
       </c>
-      <c r="E113">
+      <c r="B113" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2022-02-12.jpg}}
+GPX: 
+Meetup 2022-02-12: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/283911794/| 🎿 Ski: Ski for NOOB - Session 3 ⛷]]</v>
+      </c>
+      <c r="F113">
         <v>12</v>
       </c>
-      <c r="F113" s="1">
+      <c r="G113" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
         <v>299</v>
       </c>
-      <c r="H113" t="s">
+      <c r="I113" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
         <v>44604</v>
       </c>
-      <c r="E114">
+      <c r="B114" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2022-02-12.jpg}}
+GPX: 
+Meetup 2022-02-12: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/283912949/| 🎿 Ski: Ski at Chamrousse ⛷]]</v>
+      </c>
+      <c r="F114">
         <v>4</v>
       </c>
-      <c r="F114" s="1">
+      <c r="G114" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>291</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>44605</v>
       </c>
-      <c r="E115">
+      <c r="B115" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2022-02-13.jpg}}
+GPX: 
+Meetup 2022-02-13: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/283950209/| 🎿 Ski at 7 Laux - Not for noob⛷]]</v>
+      </c>
+      <c r="F115">
         <v>5</v>
       </c>
-      <c r="F115" s="1">
+      <c r="G115" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
         <v>302</v>
       </c>
-      <c r="H115" t="s">
+      <c r="I115" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>44605</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>10,3 km - d+ 684 m - top 953m
+{{https://binnette.github.io/GAC/Stats/img/2022-02-13.jpg}}
+GPX: 
+Meetup 2022-02-13: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/283912944/| 🥾🔵 Hike: Le Crêt de Chazay ⛰]]</v>
+      </c>
+      <c r="C116">
         <v>10.3</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>684</v>
       </c>
-      <c r="D116">
+      <c r="E116">
         <v>953</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>40</v>
       </c>
-      <c r="F116" s="1">
+      <c r="G116" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>412</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
         <v>304</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
         <v>44610</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>4 km - d+ 324 m - top 484m
+{{https://binnette.github.io/GAC/Stats/img/2022-02-18.jpg}}
+GPX: https://s.42l.fr/EJGwvKCc
+Meetup 2022-02-18: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/284041009/|Run/Hike to Batille: sunset and (almost) full moon🏃‍♀️🥾🌕]]</v>
+      </c>
+      <c r="C117">
         <v>4</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>324</v>
       </c>
-      <c r="D117">
+      <c r="E117">
         <v>484</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>3</v>
       </c>
-      <c r="F117" s="1">
+      <c r="G117" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>12</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
         <v>306</v>
       </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
         <v>307</v>
       </c>
-      <c r="I117" t="s">
+      <c r="J117" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>44610</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>4 km - d+ 324 m - top 484m
+{{https://binnette.github.io/GAC/Stats/img/2022-02-18.jpg}}
+GPX: https://s.42l.fr/EJGwvKCc
+Meetup 2022-02-18: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/284075284/| 🥾🟢 Hike: Bastille by night 🌔]]</v>
+      </c>
+      <c r="C118">
         <v>4</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <v>324</v>
       </c>
-      <c r="D118">
+      <c r="E118">
         <v>484</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>12</v>
       </c>
-      <c r="F118" s="1">
+      <c r="G118" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>48</v>
       </c>
-      <c r="G118" t="s">
+      <c r="H118" t="s">
         <v>309</v>
       </c>
-      <c r="H118" t="s">
+      <c r="I118" t="s">
         <v>310</v>
       </c>
-      <c r="I118" t="s">
+      <c r="J118" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>44611</v>
       </c>
-      <c r="E119">
+      <c r="B119" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2022-02-19.jpg}}
+GPX: 
+Meetup 2022-02-19: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/284096109/| 🎿 Ski at 7 Laux - Not for noob⛷]]</v>
+      </c>
+      <c r="F119">
         <v>4</v>
       </c>
-      <c r="F119" s="1">
+      <c r="G119" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
         <v>302</v>
       </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <v>44611</v>
       </c>
-      <c r="E120">
+      <c r="B120" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2022-02-19.jpg}}
+GPX: 
+Meetup 2022-02-19: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/284097694/| 🎿 Ski: Ski at les 2 alpes not for noob ⛷]]</v>
+      </c>
+      <c r="F120">
         <v>4</v>
       </c>
-      <c r="F120" s="1">
+      <c r="G120" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H120" t="s">
         <v>312</v>
       </c>
-      <c r="H120" t="s">
+      <c r="I120" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>44612</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>11,1 km - d+ 730 m - top 660m
+{{https://binnette.github.io/GAC/Stats/img/2022-02-20.jpg}}
+GPX: https://s.42l.fr/X8DFsc8v
+Meetup 2022-02-20: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/284081461/| 🥾🔵 Hike: Belvédère des maquisards 👁️]]</v>
+      </c>
+      <c r="C121">
         <v>11.1</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <v>730</v>
       </c>
-      <c r="D121">
+      <c r="E121">
         <v>660</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>31</v>
       </c>
-      <c r="F121" s="1">
+      <c r="G121" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>344.09999999999997</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>314</v>
       </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
         <v>315</v>
       </c>
-      <c r="I121" t="s">
+      <c r="J121" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>44618</v>
       </c>
-      <c r="E122">
+      <c r="B122" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2022-02-26.jpg}}
+GPX: 
+Meetup 2022-02-26: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/284225448/| 🎿 Ski: Ski at les 2 alpes not for noob ⛷]]</v>
+      </c>
+      <c r="F122">
         <v>4</v>
       </c>
-      <c r="F122" s="1">
+      <c r="G122" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
         <v>312</v>
       </c>
-      <c r="H122" t="s">
+      <c r="I122" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
         <v>44618</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>11,1 km - d+ 821 m - top 860m
+{{https://binnette.github.io/GAC/Stats/img/2022-02-26.jpg}}
+GPX: https://s.42l.fr/cPJdPNWt
+Meetup 2022-02-26: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/284202086/|🥾🔵 Hike: La Ferme Durand 🚜]]</v>
+      </c>
+      <c r="C123">
         <v>11.1</v>
       </c>
-      <c r="C123">
+      <c r="D123">
         <v>821</v>
       </c>
-      <c r="D123">
+      <c r="E123">
         <v>860</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>16</v>
       </c>
-      <c r="F123" s="1">
+      <c r="G123" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>177.6</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
         <v>318</v>
       </c>
-      <c r="H123" t="s">
+      <c r="I123" t="s">
         <v>319</v>
       </c>
-      <c r="I123" t="s">
+      <c r="J123" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
         <v>44619</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>7,6 km - d+ 360 m - top 1970m
+{{https://binnette.github.io/GAC/Stats/img/2022-02-27.jpg}}
+GPX: https://s.42l.fr/mpkis
+Meetup 2022-02-27: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/284208068/| ❄️🔵 Snowshoe: Lac Achard at Chamrousse ☃️]]</v>
+      </c>
+      <c r="C124">
         <v>7.6</v>
       </c>
-      <c r="C124">
+      <c r="D124">
         <v>360</v>
       </c>
-      <c r="D124">
+      <c r="E124">
         <v>1970</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>11</v>
       </c>
-      <c r="F124" s="1">
+      <c r="G124" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>83.6</v>
       </c>
-      <c r="G124" t="s">
+      <c r="H124" t="s">
         <v>321</v>
       </c>
-      <c r="H124" t="s">
+      <c r="I124" t="s">
         <v>322</v>
       </c>
-      <c r="I124" t="s">
+      <c r="J124" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
         <v>44624</v>
       </c>
-      <c r="E125">
+      <c r="B125" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2022-03-04.jpg}}
+GPX: 
+Meetup 2022-03-04: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/284341942/|Holocene : music festival at Alpexpo]]</v>
+      </c>
+      <c r="F125">
         <v>10</v>
       </c>
-      <c r="F125" s="1">
+      <c r="G125" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G125" t="s">
+      <c r="H125" t="s">
         <v>324</v>
       </c>
-      <c r="H125" t="s">
+      <c r="I125" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>44625</v>
       </c>
-      <c r="E126">
+      <c r="B126" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v xml:space="preserve"> km - d+  m - top m
+{{https://binnette.github.io/GAC/Stats/img/2022-03-05.jpg}}
+GPX: 
+Meetup 2022-03-05: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/284402008/| 🎿 Ski: Ski at les 2 alpes not for noob ⛷]]</v>
+      </c>
+      <c r="F126">
         <v>5</v>
       </c>
-      <c r="F126" s="1">
+      <c r="G126" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>0</v>
       </c>
-      <c r="G126" t="s">
+      <c r="H126" t="s">
         <v>312</v>
       </c>
-      <c r="H126" t="s">
+      <c r="I126" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
         <v>44625</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>10 km - d+ 700 m - top 795m
+{{https://binnette.github.io/GAC/Stats/img/2022-03-05.jpg}}
+GPX: https://s.42l.fr/J9ML9agA
+Meetup 2022-03-05: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/284388780/| 🥾🔵 Hike: La Tour d'Arces ⚔️🛡️ &amp; Pierre Grosse 🪨]]</v>
+      </c>
+      <c r="C127">
         <v>10</v>
       </c>
-      <c r="C127">
+      <c r="D127">
         <v>700</v>
       </c>
-      <c r="D127">
+      <c r="E127">
         <v>795</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>16</v>
       </c>
-      <c r="F127" s="1">
+      <c r="G127" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>160</v>
       </c>
-      <c r="G127" t="s">
+      <c r="H127" t="s">
         <v>327</v>
       </c>
-      <c r="H127" t="s">
+      <c r="I127" t="s">
         <v>328</v>
       </c>
-      <c r="I127" t="s">
+      <c r="J127" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
         <v>44626</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>10 km - d+ 650 m - top m
+{{https://binnette.github.io/GAC/Stats/img/2022-03-06.jpg}}
+GPX: 
+Meetup 2022-03-06: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/284375979/|Snowshoe/Crampon hike to le Pic St Michel (not for beginners)]]</v>
+      </c>
+      <c r="C128">
         <v>10</v>
       </c>
-      <c r="C128">
+      <c r="D128">
         <v>650</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>5</v>
       </c>
-      <c r="F128" s="1">
+      <c r="G128" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>50</v>
       </c>
-      <c r="G128" t="s">
+      <c r="H128" t="s">
         <v>330</v>
       </c>
-      <c r="H128" t="s">
+      <c r="I128" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
         <v>44626</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="5" t="str">
+        <f>Tableau1[[#This Row],[KM]]&amp;" km - d+ "&amp;Tableau1[[#This Row],[D+]]&amp;" m - top "&amp;Tableau1[[#This Row],[Ele max]]&amp; "m"&amp;CHAR(10)&amp;"{{https://binnette.github.io/GAC/Stats/img/"&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;".jpg}}"&amp;CHAR(10)&amp;"GPX: "&amp;Tableau1[[#This Row],[Trail]]&amp;CHAR(10)&amp;"Meetup "&amp;TEXT(Tableau1[[#This Row],[Date]],"AAAA-MM-JJ")&amp;": [["&amp;Tableau1[[#This Row],[URL]]&amp;"|"&amp;Tableau1[[#This Row],[Event]]&amp;"]]"</f>
+        <v>12,5 km - d+ 973 m - top 1046m
+{{https://binnette.github.io/GAC/Stats/img/2022-03-06.jpg}}
+GPX: https://s.42l.fr/73Ls_J7K
+Meetup 2022-03-06: [[https://www.meetup.com/Grenoble-Adventure-Club-English-French/events/284284022/|🥾🔴 Hike: Mont Rachais 🚡]]</v>
+      </c>
+      <c r="C129">
         <v>12.5</v>
       </c>
-      <c r="C129">
+      <c r="D129">
         <v>973</v>
       </c>
-      <c r="D129">
+      <c r="E129">
         <v>1046</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>8</v>
       </c>
-      <c r="F129" s="1">
+      <c r="G129" s="1">
         <f>Tableau1[[#This Row],[KM]]*Tableau1[[#This Row],[People]]</f>
         <v>100</v>
       </c>
-      <c r="G129" t="s">
+      <c r="H129" t="s">
         <v>332</v>
       </c>
-      <c r="H129" t="s">
+      <c r="I129" t="s">
         <v>333</v>
       </c>
-      <c r="I129" t="s">
+      <c r="J129" t="s">
         <v>334</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I12" r:id="rId1"/>
+    <hyperlink ref="J12" r:id="rId2"/>
+    <hyperlink ref="I10" r:id="rId3"/>
+    <hyperlink ref="I11" r:id="rId4"/>
+    <hyperlink ref="I5" r:id="rId5"/>
+    <hyperlink ref="J5" r:id="rId6"/>
+    <hyperlink ref="I7" r:id="rId7"/>
+    <hyperlink ref="J7" r:id="rId8"/>
+    <hyperlink ref="I6" r:id="rId9"/>
+    <hyperlink ref="J6" r:id="rId10"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6754,13 +7686,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>335</v>
       </c>
@@ -6768,7 +7700,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44010</v>
       </c>
@@ -6776,7 +7708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44016</v>
       </c>
@@ -6784,7 +7716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44017</v>
       </c>
@@ -6792,7 +7724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44023</v>
       </c>
@@ -6800,7 +7732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44026</v>
       </c>
@@ -6808,7 +7740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44029</v>
       </c>
@@ -6816,7 +7748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44030</v>
       </c>
@@ -6824,7 +7756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44031</v>
       </c>
@@ -6832,7 +7764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44037</v>
       </c>
@@ -6840,7 +7772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44038</v>
       </c>
@@ -6848,7 +7780,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44043</v>
       </c>
@@ -6856,7 +7788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44044</v>
       </c>
@@ -6864,7 +7796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44045</v>
       </c>
@@ -6872,7 +7804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44051</v>
       </c>
@@ -6880,7 +7812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44052</v>
       </c>
@@ -6888,7 +7820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44054</v>
       </c>
@@ -6896,7 +7828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44058</v>
       </c>
@@ -6904,7 +7836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44059</v>
       </c>
@@ -6912,7 +7844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44065</v>
       </c>
@@ -6920,7 +7852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44066</v>
       </c>
@@ -6928,7 +7860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44087</v>
       </c>
@@ -6936,7 +7868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44105</v>
       </c>
@@ -6944,7 +7876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44115</v>
       </c>
@@ -6952,7 +7884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44128</v>
       </c>
@@ -6960,7 +7892,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44184</v>
       </c>
@@ -6968,7 +7900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44190</v>
       </c>
@@ -6976,7 +7908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44192</v>
       </c>
@@ -6984,7 +7916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44205</v>
       </c>
@@ -6992,7 +7924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44206</v>
       </c>
@@ -7000,7 +7932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44219</v>
       </c>
@@ -7008,7 +7940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>44233</v>
       </c>
@@ -7016,7 +7948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44241</v>
       </c>
@@ -7024,7 +7956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44248</v>
       </c>
@@ -7032,7 +7964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44254</v>
       </c>
@@ -7040,7 +7972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44261</v>
       </c>
@@ -7048,7 +7980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44268</v>
       </c>
@@ -7056,7 +7988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44329</v>
       </c>
@@ -7064,7 +7996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>44331</v>
       </c>
@@ -7072,7 +8004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44339</v>
       </c>
@@ -7080,7 +8012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>44346</v>
       </c>
@@ -7088,7 +8020,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>44353</v>
       </c>
@@ -7096,7 +8028,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>44365</v>
       </c>
@@ -7104,7 +8036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>44366</v>
       </c>
@@ -7112,7 +8044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44368</v>
       </c>
@@ -7120,7 +8052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44373</v>
       </c>
@@ -7128,7 +8060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>44378</v>
       </c>
@@ -7136,7 +8068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>44379</v>
       </c>
@@ -7144,7 +8076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>44380</v>
       </c>
@@ -7152,7 +8084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>44381</v>
       </c>
@@ -7160,7 +8092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>44387</v>
       </c>
@@ -7168,7 +8100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>44388</v>
       </c>
@@ -7176,7 +8108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>44399</v>
       </c>
@@ -7184,7 +8116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>44401</v>
       </c>
@@ -7192,7 +8124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>44409</v>
       </c>
@@ -7200,7 +8132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>44415</v>
       </c>
@@ -7208,7 +8140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>44416</v>
       </c>
@@ -7216,7 +8148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>44420</v>
       </c>
@@ -7224,7 +8156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>44422</v>
       </c>
@@ -7232,7 +8164,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>44423</v>
       </c>
@@ -7240,7 +8172,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>44429</v>
       </c>
@@ -7248,7 +8180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>44430</v>
       </c>
@@ -7256,7 +8188,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>44437</v>
       </c>
@@ -7264,7 +8196,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>44443</v>
       </c>
@@ -7272,7 +8204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>44451</v>
       </c>
@@ -7280,7 +8212,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>44457</v>
       </c>
@@ -7288,7 +8220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>44458</v>
       </c>
@@ -7296,7 +8228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>44463</v>
       </c>
@@ -7304,7 +8236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>44464</v>
       </c>
@@ -7312,7 +8244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>44471</v>
       </c>
@@ -7320,7 +8252,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>44478</v>
       </c>
@@ -7328,7 +8260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>44479</v>
       </c>
@@ -7336,7 +8268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>44485</v>
       </c>
@@ -7344,7 +8276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>44486</v>
       </c>
@@ -7352,7 +8284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>44492</v>
       </c>
@@ -7360,7 +8292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>44493</v>
       </c>
@@ -7368,7 +8300,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>44500</v>
       </c>
@@ -7376,7 +8308,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>44506</v>
       </c>
@@ -7384,7 +8316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>44507</v>
       </c>
@@ -7392,7 +8324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>44514</v>
       </c>
@@ -7400,7 +8332,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>44518</v>
       </c>
@@ -7408,7 +8340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>44521</v>
       </c>
@@ -7416,7 +8348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>44528</v>
       </c>
@@ -7424,7 +8356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>44534</v>
       </c>
@@ -7432,7 +8364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>44541</v>
       </c>
@@ -7440,7 +8372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>44542</v>
       </c>
@@ -7448,7 +8380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>44548</v>
       </c>
@@ -7456,7 +8388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>44562</v>
       </c>
@@ -7464,7 +8396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>44563</v>
       </c>
@@ -7472,7 +8404,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>44569</v>
       </c>
@@ -7480,7 +8412,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>44576</v>
       </c>
@@ -7488,7 +8420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>44577</v>
       </c>
@@ -7496,7 +8428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>44583</v>
       </c>
@@ -7504,7 +8436,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>44584</v>
       </c>
@@ -7512,7 +8444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>44590</v>
       </c>
@@ -7520,7 +8452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>44591</v>
       </c>
@@ -7528,7 +8460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>44597</v>
       </c>
@@ -7536,7 +8468,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>44598</v>
       </c>
@@ -7544,7 +8476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>44604</v>
       </c>
@@ -7552,7 +8484,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>44605</v>
       </c>
@@ -7560,7 +8492,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>44610</v>
       </c>
@@ -7568,7 +8500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>44611</v>
       </c>
@@ -7576,7 +8508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>44612</v>
       </c>
@@ -7584,7 +8516,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>44618</v>
       </c>
@@ -7592,7 +8524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>44619</v>
       </c>
@@ -7600,7 +8532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>44624</v>
       </c>
@@ -7608,7 +8540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>44625</v>
       </c>
@@ -7616,7 +8548,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>44626</v>
       </c>
@@ -7624,7 +8556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>336</v>
       </c>
